--- a/data/trans_bre/P28B_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28B_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>12,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,64</t>
+          <t>19,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>10,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,32%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>117,11%</t>
+          <t>86,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>138,63%</t>
+          <t>169,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>111,85%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 11,45</t>
+          <t>-16,34; 26,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 19,32</t>
+          <t>-6,09; 27,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 24,27</t>
+          <t>-0,38; 35,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 11,33</t>
+          <t>-3,87; 25,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 44,93</t>
+          <t>-35,06; 122,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 440,98</t>
+          <t>-34,39; 404,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,68; 420,48</t>
+          <t>-7,34; 704,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,7; 175,61</t>
+          <t>-35,14; 930,14</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,34</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>46,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>72,35%</t>
+          <t>19,35%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 23,0</t>
+          <t>5,97; 28,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 7,95</t>
+          <t>-11,5; 13,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 13,28</t>
+          <t>-1,04; 17,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 16,09</t>
+          <t>-4,69; 12,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,17; 72,82</t>
+          <t>12,36; 99,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 36,57</t>
+          <t>-31,25; 60,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 100,09</t>
+          <t>-5,06; 126,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 163,69</t>
+          <t>-22,13; 96,73</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,75</t>
+          <t>22,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,43</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,03</t>
+          <t>11,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>74,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>40,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>48,97%</t>
+          <t>51,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>108,73%</t>
+          <t>77,43%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 27,8</t>
+          <t>11,67; 34,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 17,5</t>
+          <t>-3,79; 17,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 17,26</t>
+          <t>-3,71; 19,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 22,75</t>
+          <t>0,89; 18,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,02; 89,14</t>
+          <t>31,0; 141,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 118,73</t>
+          <t>-17,51; 125,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 112,71</t>
+          <t>-15,72; 168,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>41,2; 236,96</t>
+          <t>5,55; 192,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>75,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 18,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 10,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 13,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 14,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 56,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 54,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,28; 98,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,2; 135,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17,27</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,14</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>51,54%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23,39%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>58,9%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>48,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 24,76</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 12,87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,05; 16,54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 12,9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26,75; 84,0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-12,41; 63,13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,15; 118,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 106,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P28B_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28B_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,85</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>19,72</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,41</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>86,81%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>169,02%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>111,85%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.849083361048327</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>11.68122522071026</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>18.47129310134962</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.409539911051347</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1144148652126776</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.7680826106087375</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.515098276352308</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.8457376661067404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,34; 26,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,09; 27,91</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 35,89</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,87; 25,47</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-35,06; 122,91</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-34,39; 404,42</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-7,34; 704,07</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-35,14; 930,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.33686421702994</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.438393128933594</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.10026368156609</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.411281386624927</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3505644067018938</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4062648979869983</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1042476462447701</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.440801900513058</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.0004803256209</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>26.74806656202862</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>34.50333685934338</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>23.11651471113089</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.229116830601677</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.837910851862377</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>6.434651674783932</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>6.668438765754122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>16,47</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,25</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>46,39%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,32%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>44,81%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>19,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>5,97; 28,23</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,5; 13,24</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 17,45</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 12,03</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>12,36; 99,57</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-31,25; 60,7</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; 126,27</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-22,13; 96,73</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>16.7883159660456</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.462755949530549</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.325165980281474</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.577083592391835</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.4728443849671994</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.119433590613273</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.510420669246297</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.14663795835774</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>22,93</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,22</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,08</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,08</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>74,18%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>40,75%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>51,26%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>77,43%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5.002775558570868</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.619875414538212</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2648338354527839</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.454501311606577</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.1303665452560396</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2703567894934275</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.01066208793350271</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.25738965695334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>11,67; 34,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 17,96</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,71; 19,37</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 18,89</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>31,0; 141,9</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-17,51; 125,68</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-15,72; 168,65</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>5,55; 192,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>27.28735886472848</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.54415056824292</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>18.6579750440606</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.72151446089715</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.978199564487417</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.6905351308450448</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.399943005036715</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9220503276762085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>23.2138088969444</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.377822977378871</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.235960639181531</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>10.68058177551893</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.7509424152929054</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4352939947704755</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4469977857625333</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.7294222971102184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>11.75710927702357</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.689329020320601</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.649371324428929</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.05053975375520849</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.3201775065604112</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1757004626717162</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1902511536086148</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.003028994743975263</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>34.16893965907879</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.03959588949425</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>18.97757437809234</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18.54111166709453</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.390300966743496</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.329570938885456</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.644603279133502</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.806733827342504</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>17,27</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,66</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10,14</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>51,54%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>23,39%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>58,9%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>48,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>10,17; 24,76</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 12,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 16,54</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 12,9</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>26,75; 84,0</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-12,41; 63,13</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>13,15; 118,98</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,74; 106,93</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>17.52218762065008</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.215628111928872</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.12783446518809</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.388456127846243</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.5228698049404675</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.264301736097431</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5778087814946102</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4121614666915338</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>8.893771358451492</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.123285751144322</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.743558014973747</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1065693037561268</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.258678718537308</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.07643466051540498</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1158650160941058</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.01431319840798911</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>24.4027401908971</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>13.15412619947082</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>16.51160069909806</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.95554181844317</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.8289148199191277</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.678409681079653</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.187557768611223</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9720397760773528</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
